--- a/minecraft/excel/所需模组列表.xlsx
+++ b/minecraft/excel/所需模组列表.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
   <si>
     <t>海边小岛度假村所需模组列表</t>
   </si>
@@ -82,6 +85,21 @@
     <t>是(影响小部分方块)</t>
   </si>
   <si>
+    <t>Continuity</t>
+  </si>
+  <si>
+    <t>v3.0.0-beta.4+1.20.1</t>
+  </si>
+  <si>
+    <t>PepperCodel</t>
+  </si>
+  <si>
+    <t>否(必须同时安装Indium)</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>Controlling For Fabric</t>
   </si>
   <si>
@@ -94,9 +112,6 @@
     <t>Jaredlll08</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>Cull Less Leaver</t>
   </si>
   <si>
@@ -145,6 +160,15 @@
     <t>ChaosTheDude</t>
   </si>
   <si>
+    <t>Fabric API</t>
+  </si>
+  <si>
+    <t>v0.92.1+1.20.1</t>
+  </si>
+  <si>
+    <t>Fabric</t>
+  </si>
+  <si>
     <t>Farmer's Delight</t>
   </si>
   <si>
@@ -157,6 +181,15 @@
     <t>Zifiv, vectorwing, StevenPlayzz,...</t>
   </si>
   <si>
+    <t>Forge Config API Port</t>
+  </si>
+  <si>
+    <t>v8.0.0</t>
+  </si>
+  <si>
+    <t>其他模组前置</t>
+  </si>
+  <si>
     <t>IMBlocker</t>
   </si>
   <si>
@@ -229,9 +262,6 @@
     <t>Leaves Be Gone</t>
   </si>
   <si>
-    <t>v8.0.0</t>
-  </si>
-  <si>
     <t>Fuzs</t>
   </si>
   <si>
@@ -259,6 +289,24 @@
     <t>基础游戏</t>
   </si>
   <si>
+    <t>Mod Meun</t>
+  </si>
+  <si>
+    <t>模组菜单</t>
+  </si>
+  <si>
+    <t>v7.2.2</t>
+  </si>
+  <si>
+    <t>Prospector, haykam821,...</t>
+  </si>
+  <si>
+    <t>Puzzles Lib</t>
+  </si>
+  <si>
+    <t>v8.1.18</t>
+  </si>
+  <si>
     <t>Replay Mod</t>
   </si>
   <si>
@@ -325,43 +373,10 @@
     <t>v1.38.4</t>
   </si>
   <si>
-    <t>Mod Meun</t>
-  </si>
-  <si>
-    <t>模组菜单</t>
-  </si>
-  <si>
-    <t>v7.2.2</t>
-  </si>
-  <si>
-    <t>Prospector, haykam821,...</t>
-  </si>
-  <si>
-    <t>Forge Config API Port</t>
-  </si>
-  <si>
-    <t>其他模组前置</t>
-  </si>
-  <si>
-    <t>Puzzles Lib</t>
-  </si>
-  <si>
-    <t>v8.1.18</t>
-  </si>
-  <si>
     <t>YetAnotherConfigLib</t>
   </si>
   <si>
     <t>v3.2.2+1.20</t>
-  </si>
-  <si>
-    <t>Fabric API</t>
-  </si>
-  <si>
-    <t>v0.92.1+1.20.1</t>
-  </si>
-  <si>
-    <t>Fabric</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +1024,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1325,10 +1343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="19" customHeight="1" outlineLevelCol="5"/>
@@ -1407,22 +1425,20 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1503,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -1519,8 +1535,8 @@
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -1530,34 +1546,28 @@
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -1568,34 +1578,30 @@
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
@@ -1626,16 +1632,16 @@
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1646,34 +1652,34 @@
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -1684,129 +1690,123 @@
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>82</v>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>94</v>
@@ -1815,24 +1815,22 @@
         <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>21</v>
@@ -1840,61 +1838,105 @@
     </row>
     <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="C27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F31">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A3:F31">
+    <sortCondition ref="A3"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>

--- a/minecraft/excel/所需模组列表.xlsx
+++ b/minecraft/excel/所需模组列表.xlsx
@@ -289,7 +289,7 @@
     <t>基础游戏</t>
   </si>
   <si>
-    <t>Mod Meun</t>
+    <t>Mod Menu</t>
   </si>
   <si>
     <t>模组菜单</t>
@@ -1013,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,9 +1024,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1345,8 +1342,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.3333333333333" defaultRowHeight="19" customHeight="1" outlineLevelCol="5"/>
@@ -1425,20 +1422,20 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1585,7 +1582,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="2"/>
@@ -1793,7 +1790,7 @@
         <v>90</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="2"/>
@@ -1925,7 +1922,7 @@
         <v>114</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F31" s="2"/>
